--- a/biology/Zoologie/Citharognathus/Citharognathus.xlsx
+++ b/biology/Zoologie/Citharognathus/Citharognathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citharognathus est un genre d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citharognathus est un genre d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Bornéo et en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent à Bornéo et en Chine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 14.0, 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 14.0, 2013) :
 Citharognathus hosei Pocock, 1895
 Citharognathus tongmianensis Zhu, Li &amp; Song, 2002</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pocock, 1895 : On a new and natural grouping of some of the Oriental genera of Mygalomorphae, with descriptions of new genera and species. Annals and Magazine of Natural History, sér. 6, vol. 15, p. 165-184 (texte intégral).</t>
         </is>
